--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>순서도/화면구성도/목업이미지 준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8 days</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +186,10 @@
   </si>
   <si>
     <t>3 days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서도/목업이미지 준비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,50 +371,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -726,20 +726,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
@@ -749,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -788,47 +788,47 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -844,12 +844,12 @@
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -864,12 +864,12 @@
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -882,14 +882,14 @@
         <v>14</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="C8" s="23"/>
       <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="25"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -901,36 +901,36 @@
       <c r="A9" s="8">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -942,17 +942,17 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -964,16 +964,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="4"/>
@@ -984,17 +984,17 @@
         <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="12"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1004,20 +1004,20 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1025,19 +1025,19 @@
       <c r="A15" s="8">
         <v>3</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
@@ -1047,37 +1047,37 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8">
         <v>4</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
@@ -1086,8 +1086,8 @@
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>40</v>
+      <c r="C18" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>27</v>
@@ -1099,7 +1099,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="28"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
@@ -1108,7 +1108,7 @@
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="28"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
@@ -1128,7 +1128,7 @@
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1139,10 +1139,11 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="28"/>
+      <c r="L20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="C11:C13"/>
@@ -1151,7 +1152,6 @@
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B17:L17"/>
-    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
